--- a/stats/bryum/month_temp_stats_X2.xlsx
+++ b/stats/bryum/month_temp_stats_X2.xlsx
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.42976190476191</v>
+        <v>-6.42980625931444</v>
       </c>
       <c r="D17" t="n">
         <v>3.3</v>

--- a/stats/bryum/month_temp_stats_X2.xlsx
+++ b/stats/bryum/month_temp_stats_X2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">min_temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_temp</t>
   </si>
 </sst>
 </file>
@@ -374,6 +377,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -391,6 +397,9 @@
       <c r="E2" t="n">
         <v>-18.4</v>
       </c>
+      <c r="F2" t="n">
+        <v>4.10186018688312</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -408,6 +417,9 @@
       <c r="E3" t="n">
         <v>-7.7</v>
       </c>
+      <c r="F3" t="n">
+        <v>3.41625508938201</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -425,6 +437,9 @@
       <c r="E4" t="n">
         <v>-8.7</v>
       </c>
+      <c r="F4" t="n">
+        <v>2.65425669226604</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -442,6 +457,9 @@
       <c r="E5" t="n">
         <v>-6.9</v>
       </c>
+      <c r="F5" t="n">
+        <v>2.77630646996135</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -459,6 +477,9 @@
       <c r="E6" t="n">
         <v>-18.9</v>
       </c>
+      <c r="F6" t="n">
+        <v>3.33303520919959</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -476,6 +497,9 @@
       <c r="E7" t="n">
         <v>-9.4</v>
       </c>
+      <c r="F7" t="n">
+        <v>4.44635981800796</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -493,6 +517,9 @@
       <c r="E8" t="n">
         <v>-6.7</v>
       </c>
+      <c r="F8" t="n">
+        <v>2.21413712731855</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -510,6 +537,9 @@
       <c r="E9" t="n">
         <v>-13.4</v>
       </c>
+      <c r="F9" t="n">
+        <v>2.71130383327513</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -527,6 +557,9 @@
       <c r="E10" t="n">
         <v>-19.4</v>
       </c>
+      <c r="F10" t="n">
+        <v>2.52225280536793</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -544,6 +577,9 @@
       <c r="E11" t="n">
         <v>-11.2</v>
       </c>
+      <c r="F11" t="n">
+        <v>5.35271320395833</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -561,6 +597,9 @@
       <c r="E12" t="n">
         <v>-5.2</v>
       </c>
+      <c r="F12" t="n">
+        <v>2.49821592226367</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -578,6 +617,9 @@
       <c r="E13" t="n">
         <v>-10.9</v>
       </c>
+      <c r="F13" t="n">
+        <v>4.15503998807876</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -595,6 +637,9 @@
       <c r="E14" t="n">
         <v>-19.4</v>
       </c>
+      <c r="F14" t="n">
+        <v>4.479966145188</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -612,6 +657,9 @@
       <c r="E15" t="n">
         <v>-6.4</v>
       </c>
+      <c r="F15" t="n">
+        <v>3.07316679817093</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -629,6 +677,9 @@
       <c r="E16" t="n">
         <v>-7.2</v>
       </c>
+      <c r="F16" t="n">
+        <v>3.071419894473</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -645,6 +696,9 @@
       </c>
       <c r="E17" t="n">
         <v>-15.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.08808678289712</v>
       </c>
     </row>
   </sheetData>
